--- a/database/2023-2024/2 - Ekim 1 (Paraf).xlsx
+++ b/database/2023-2024/2 - Ekim 1 (Paraf).xlsx
@@ -592,7 +592,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>ATA AN KALAZ</t>
+    <t>ATAKAN KALAZ</t>
   </si>
   <si>
     <t>471</t>
@@ -4722,7 +4722,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4733,12 +4733,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4793,7 +4787,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
